--- a/trunk/QueryDesigner/-.template.xlsx
+++ b/trunk/QueryDesigner/-.template.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="__data__">'&lt;#QDCode&gt;'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>parameters</t>
+  </si>
+  <si>
+    <t>&lt;#DB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#QDCode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#QDName&gt;</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
   <dimension ref="A8:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -611,6 +620,9 @@
       <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
       </c>
@@ -628,6 +640,9 @@
       <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
@@ -638,6 +653,9 @@
       </c>
       <c r="I12" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/QueryDesigner/-.template.xlsx
+++ b/trunk/QueryDesigner/-.template.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;#Config&gt;" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#QDCode&gt;" sheetId="2" r:id="rId2"/>
+    <sheet name="parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="__data__">'&lt;#QDCode&gt;'!$4:$4</definedName>
+    <definedName name="__params__">parameters!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210" calcMode="manual" fullCalcOnLoad="1" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Data</t>
   </si>
@@ -96,20 +98,50 @@
     <t>parameters</t>
   </si>
   <si>
-    <t>&lt;#DB&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#QDCode&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#QDName&gt;</t>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>FilterPara</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>Filter:</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Filter From</t>
+  </si>
+  <si>
+    <t>Filter To</t>
+  </si>
+  <si>
+    <t>&lt;#params.Description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#params.ValueTo&gt;</t>
+  </si>
+  <si>
+    <t>IsNot</t>
+  </si>
+  <si>
+    <t>&lt;#IF(&lt;#parameters.IsNot&gt;="N";"Is";"Is Not")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#IF(&lt;#params.IsNot&gt;="N";"Is";"Is Not")&gt; &lt;#params.Operate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#params.ValueFrom&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,29 +150,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="18"/>
+      <color indexed="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="16"/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -171,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,19 +230,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -221,34 +252,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,13 +584,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A8:N12"/>
+  <dimension ref="A8:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -566,62 +608,62 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="71.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" ht="38.25">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17.25" thickBot="1">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
@@ -630,32 +672,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickTop="1">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>27</v>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="M13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -670,19 +720,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="22.7109375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="5" width="10" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="23.25">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -699,5 +749,59 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25">
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12"/>
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/QueryDesigner/-.template.xlsx
+++ b/trunk/QueryDesigner/-.template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;#Config&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Data</t>
   </si>
@@ -135,13 +135,25 @@
   </si>
   <si>
     <t>&lt;#params.ValueFrom&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#DB&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#SysDate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#QDName&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#QDCode&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +166,21 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,7 +216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -264,33 +297,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,8 +633,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A8:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -652,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" ht="18" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -662,8 +709,11 @@
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="15" t="s">
         <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
@@ -672,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="15.75" thickTop="1">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -682,8 +732,11 @@
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="16" t="s">
         <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -696,11 +749,17 @@
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="M13" s="2" t="s">
         <v>34</v>
       </c>
@@ -720,8 +779,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -771,33 +830,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
     </row>

--- a/trunk/QueryDesigner/-.template.xlsx
+++ b/trunk/QueryDesigner/-.template.xlsx
@@ -15,7 +15,7 @@
     <definedName name="__data__">'&lt;#QDCode&gt;'!$4:$4</definedName>
     <definedName name="__params__">parameters!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="114210" calcMode="manual" fullCalcOnLoad="1" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="114210" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -634,7 +634,7 @@
   <dimension ref="A8:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -814,6 +814,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/trunk/QueryDesigner/-.template.xlsx
+++ b/trunk/QueryDesigner/-.template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>&lt;#QDCode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#OperatorID&gt;</t>
   </si>
 </sst>
 </file>
@@ -631,10 +634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A8:N13"/>
+  <dimension ref="A8:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -765,6 +768,11 @@
       </c>
       <c r="N13" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="K14" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/QueryDesigner/-.template.xlsx
+++ b/trunk/QueryDesigner/-.template.xlsx
@@ -15,12 +15,12 @@
     <definedName name="__data__">'&lt;#QDCode&gt;'!$4:$4</definedName>
     <definedName name="__params__">parameters!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="114210" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -86,27 +86,15 @@
     <t>&lt;#data.*&gt;&lt;#format cell(NormalRow)&gt;&lt;#Column Width(Autofit)&gt;</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
     <t>&lt;#QDName&gt;&lt;#Row Height(Autofit)&gt;</t>
   </si>
   <si>
-    <t>parameters</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
-    <t>FilterPara</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
     <t>Filter:</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>IsNot</t>
   </si>
   <si>
-    <t>&lt;#IF(&lt;#parameters.IsNot&gt;="N";"Is";"Is Not")&gt;</t>
-  </si>
-  <si>
     <t>&lt;#IF(&lt;#params.IsNot&gt;="N";"Is";"Is Not")&gt; &lt;#params.Operate&gt;</t>
   </si>
   <si>
@@ -150,6 +135,9 @@
   </si>
   <si>
     <t>&lt;#OperatorID&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#IF(&lt;#params.IsNot&gt;="N";"Is";"Is Not")&gt;</t>
   </si>
 </sst>
 </file>
@@ -634,10 +622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A8:N14"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -657,6 +645,13 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" hidden="1"/>
+    <row r="2" spans="1:14" hidden="1"/>
+    <row r="3" spans="1:14" hidden="1"/>
+    <row r="4" spans="1:14" hidden="1"/>
+    <row r="5" spans="1:14" hidden="1"/>
+    <row r="6" spans="1:14" hidden="1"/>
+    <row r="7" spans="1:14" hidden="1"/>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
         <v>0</v>
@@ -704,10 +699,10 @@
     </row>
     <row r="10" spans="1:14" ht="18" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -716,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
@@ -725,13 +720,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickTop="1">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" thickTop="1">
+      <c r="B11" s="8"/>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
@@ -739,16 +729,17 @@
         <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1">
+      <c r="B12" s="8"/>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
@@ -756,25 +747,25 @@
         <v>14</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
       <c r="K13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" customHeight="1">
       <c r="K14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:14" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -787,9 +778,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -800,7 +789,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -840,33 +829,33 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11"/>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
